--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/40.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/40.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05315027189516672</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.490553159072142</v>
+        <v>-1.490781879325922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.198839286942527</v>
+        <v>0.2024286701251893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1709030901854357</v>
+        <v>0.1787576486605972</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06601915585026534</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.42619188957898</v>
+        <v>-1.431439037161043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1954493478211613</v>
+        <v>0.2079783383629199</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1529586139548311</v>
+        <v>0.1612620740480791</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09319396607162353</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.461846022579641</v>
+        <v>-1.464763273176527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1639603631220125</v>
+        <v>0.1748541563294096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1807856349107844</v>
+        <v>0.1899631113338125</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1281802352642557</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.554583851558506</v>
+        <v>-1.558574562546469</v>
       </c>
       <c r="F5" t="n">
-        <v>0.167515590746777</v>
+        <v>0.1709518838395755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1614273625514779</v>
+        <v>0.1728097022209501</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1596967953532859</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.537232828146378</v>
+        <v>-1.537140730124189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2660647439336979</v>
+        <v>0.2670942900360486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1926016281814246</v>
+        <v>0.20495679133031</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1780703074191236</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.418182411251924</v>
+        <v>-1.411126238942626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3457148950309036</v>
+        <v>0.3436082290134158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09948259877959159</v>
+        <v>0.1103709027008979</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.179703204092536</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.141407727191777</v>
+        <v>-1.12926664620043</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4327353275859327</v>
+        <v>0.4263183521458664</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04559366730619367</v>
+        <v>0.05574762673269534</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.167091856557054</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6603779275368252</v>
+        <v>-0.650714344334429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4008084198408789</v>
+        <v>0.3918645430370454</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005044920874629285</v>
+        <v>0.0107257220578607</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1421947493486298</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06963681638978667</v>
+        <v>-0.05749268579505609</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4360417075745839</v>
+        <v>0.434843213444774</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03933839685165014</v>
+        <v>-0.03380153694813127</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1022872937979358</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5335338682287005</v>
+        <v>0.5409950278673595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2614079995667265</v>
+        <v>0.2666191618288619</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04263928755421063</v>
+        <v>-0.03397536434100447</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03961030908257638</v>
       </c>
       <c r="E12" t="n">
-        <v>1.236906591068096</v>
+        <v>1.234959114347239</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1043644798824676</v>
+        <v>-0.09971871408767763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01860528728076886</v>
+        <v>0.02590298817805937</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04902406477681844</v>
       </c>
       <c r="E13" t="n">
-        <v>1.886759994364203</v>
+        <v>1.87145586474324</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4753956954065834</v>
+        <v>-0.4675704131239058</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1300725604012137</v>
+        <v>0.1382967308064845</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1597741959317104</v>
       </c>
       <c r="E14" t="n">
-        <v>2.469170808908216</v>
+        <v>2.442229392774901</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.037327203387427</v>
+        <v>-1.025860084743887</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2652718470539254</v>
+        <v>0.268475760368883</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2807781850060159</v>
       </c>
       <c r="E15" t="n">
-        <v>3.152955319293171</v>
+        <v>3.131867921815283</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.667016629110244</v>
+        <v>-1.653837463127071</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3595460662175193</v>
+        <v>0.3573979255940126</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3995411032219985</v>
       </c>
       <c r="E16" t="n">
-        <v>3.793769698159871</v>
+        <v>3.770220660830629</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.248284452306031</v>
+        <v>-2.232862607994456</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5638890103897746</v>
+        <v>0.5654247906538262</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5090064915630623</v>
       </c>
       <c r="E17" t="n">
-        <v>4.383398313992521</v>
+        <v>4.355762808129067</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.881641331058133</v>
+        <v>-2.874758986141708</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7671048211513996</v>
+        <v>0.7663076548268898</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6108032596639158</v>
       </c>
       <c r="E18" t="n">
-        <v>4.806328289821806</v>
+        <v>4.774838085281305</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.504834491652906</v>
+        <v>-3.501875156529324</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9613175928035465</v>
+        <v>0.962388613511916</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7070751698713147</v>
       </c>
       <c r="E19" t="n">
-        <v>5.176834363643242</v>
+        <v>5.152682724685373</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.098584341498342</v>
+        <v>-4.100377508287981</v>
       </c>
       <c r="G19" t="n">
-        <v>1.215876526133823</v>
+        <v>1.209367452671568</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7978940775869913</v>
       </c>
       <c r="E20" t="n">
-        <v>5.553981253793111</v>
+        <v>5.532747475352804</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.655776765820854</v>
+        <v>-4.662419411911317</v>
       </c>
       <c r="G20" t="n">
-        <v>1.398491046196929</v>
+        <v>1.388475538764049</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8798361842005696</v>
       </c>
       <c r="E21" t="n">
-        <v>5.875206956774657</v>
+        <v>5.855468703833736</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.054541684437381</v>
+        <v>-5.068160908188826</v>
       </c>
       <c r="G21" t="n">
-        <v>1.546532212698571</v>
+        <v>1.536346537396878</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9502316740650186</v>
       </c>
       <c r="E22" t="n">
-        <v>6.058783321744994</v>
+        <v>6.04118954990352</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.346317977462824</v>
+        <v>-5.359794174815572</v>
       </c>
       <c r="G22" t="n">
-        <v>1.742166099527541</v>
+        <v>1.73306608303046</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.006331675750141</v>
       </c>
       <c r="E23" t="n">
-        <v>6.264344887429393</v>
+        <v>6.24796241805194</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.578448755187551</v>
+        <v>-5.592721813904471</v>
       </c>
       <c r="G23" t="n">
-        <v>1.878162552504762</v>
+        <v>1.867033939836817</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.047219885044484</v>
       </c>
       <c r="E24" t="n">
-        <v>6.459628069869233</v>
+        <v>6.45478773937856</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.675001790479645</v>
+        <v>-5.688926127049634</v>
       </c>
       <c r="G24" t="n">
-        <v>1.969086477390979</v>
+        <v>1.960471957752589</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.071775061660346</v>
       </c>
       <c r="E25" t="n">
-        <v>6.531193722396142</v>
+        <v>6.520144399416174</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.717205099227058</v>
+        <v>-5.735233744511054</v>
       </c>
       <c r="G25" t="n">
-        <v>2.035788012520823</v>
+        <v>2.026284228535735</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.080667448368271</v>
       </c>
       <c r="E26" t="n">
-        <v>6.591423389225013</v>
+        <v>6.582999164837768</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.68780341556391</v>
+        <v>-5.705966700837298</v>
       </c>
       <c r="G26" t="n">
-        <v>2.046611664850394</v>
+        <v>2.030835456625629</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.074067749745339</v>
       </c>
       <c r="E27" t="n">
-        <v>6.539215399136733</v>
+        <v>6.540332773816536</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.700917624995008</v>
+        <v>-5.720458568597001</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063180769954932</v>
+        <v>2.049104410656263</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.053205458259602</v>
       </c>
       <c r="E28" t="n">
-        <v>6.512672871126011</v>
+        <v>6.5175363786024</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.581135608248796</v>
+        <v>-5.601387871840045</v>
       </c>
       <c r="G28" t="n">
-        <v>2.020102682476893</v>
+        <v>2.0057646672079</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.018121870081478</v>
       </c>
       <c r="E29" t="n">
-        <v>6.447075902341757</v>
+        <v>6.455940489457613</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.420691704785482</v>
+        <v>-5.439687989223138</v>
       </c>
       <c r="G29" t="n">
-        <v>1.931809345469491</v>
+        <v>1.913088440217386</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9704778688305883</v>
       </c>
       <c r="E30" t="n">
-        <v>6.369722102592508</v>
+        <v>6.383003735249374</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.242549733044969</v>
+        <v>-5.257676375748998</v>
       </c>
       <c r="G30" t="n">
-        <v>1.910143743190047</v>
+        <v>1.894237011940457</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9121169061537799</v>
       </c>
       <c r="E31" t="n">
-        <v>6.296620669801547</v>
+        <v>6.317055452155313</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.082289415705357</v>
+        <v>-5.09739837070976</v>
       </c>
       <c r="G31" t="n">
-        <v>1.807456888132067</v>
+        <v>1.792025285089664</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8463885815295477</v>
       </c>
       <c r="E32" t="n">
-        <v>6.146082488049298</v>
+        <v>6.170473215912453</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.835671039665663</v>
+        <v>-4.842090149828098</v>
       </c>
       <c r="G32" t="n">
-        <v>1.783750491268223</v>
+        <v>1.773335485792073</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7756880980628217</v>
       </c>
       <c r="E33" t="n">
-        <v>5.915880127024278</v>
+        <v>5.945486896514982</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.676476863669007</v>
+        <v>-4.687213907262479</v>
       </c>
       <c r="G33" t="n">
-        <v>1.687095141782605</v>
+        <v>1.673073065424167</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7037116348567463</v>
       </c>
       <c r="E34" t="n">
-        <v>5.714158621920686</v>
+        <v>5.749891434688648</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.452574678274456</v>
+        <v>-4.459665921022667</v>
       </c>
       <c r="G34" t="n">
-        <v>1.545568538029309</v>
+        <v>1.539794418982535</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6332859639243057</v>
       </c>
       <c r="E35" t="n">
-        <v>5.513719170079618</v>
+        <v>5.55807382153409</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.315882610765403</v>
+        <v>-4.32771049748924</v>
       </c>
       <c r="G35" t="n">
-        <v>1.510367576091471</v>
+        <v>1.505188129704527</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.567606781914206</v>
       </c>
       <c r="E36" t="n">
-        <v>5.290206419037172</v>
+        <v>5.339570958930452</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.124487062719155</v>
+        <v>-4.135024662251332</v>
       </c>
       <c r="G36" t="n">
-        <v>1.461331783442958</v>
+        <v>1.459120211069069</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5071349946637073</v>
       </c>
       <c r="E37" t="n">
-        <v>4.985832824354174</v>
+        <v>5.030341175819187</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.998660732066369</v>
+        <v>-4.016540556705239</v>
       </c>
       <c r="G37" t="n">
-        <v>1.385329567913382</v>
+        <v>1.38765763513653</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4513430246985687</v>
       </c>
       <c r="E38" t="n">
-        <v>4.711946724619105</v>
+        <v>4.765908846573713</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.916787725062756</v>
+        <v>-3.937992227310579</v>
       </c>
       <c r="G38" t="n">
-        <v>1.294272680319634</v>
+        <v>1.296997805903345</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3982254719422705</v>
       </c>
       <c r="E39" t="n">
-        <v>4.439564689272896</v>
+        <v>4.490455250699402</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.903151118572023</v>
+        <v>-3.931933275307764</v>
       </c>
       <c r="G39" t="n">
-        <v>1.251247046019796</v>
+        <v>1.251359271424318</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3464130397651826</v>
       </c>
       <c r="E40" t="n">
-        <v>4.138002828909708</v>
+        <v>4.18922396734301</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.799980596417381</v>
+        <v>-3.824364310192754</v>
       </c>
       <c r="G40" t="n">
-        <v>1.156023790283182</v>
+        <v>1.161209335876894</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2948145799592003</v>
       </c>
       <c r="E41" t="n">
-        <v>3.947589253153025</v>
+        <v>3.996923297012468</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.72420649122091</v>
+        <v>-3.750086645376683</v>
       </c>
       <c r="G41" t="n">
-        <v>1.098020333924442</v>
+        <v>1.099698225706176</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.243422033817323</v>
       </c>
       <c r="E42" t="n">
-        <v>3.638563183547793</v>
+        <v>3.684019351744472</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.720531719143503</v>
+        <v>-3.749795713213874</v>
       </c>
       <c r="G42" t="n">
-        <v>1.077231187657484</v>
+        <v>1.085831069199632</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1923668069175744</v>
       </c>
       <c r="E43" t="n">
-        <v>3.319174561644612</v>
+        <v>3.366351925991074</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.626994894078097</v>
+        <v>-3.656117691511802</v>
       </c>
       <c r="G43" t="n">
-        <v>1.021420396131653</v>
+        <v>1.029248118097038</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1423285970214679</v>
       </c>
       <c r="E44" t="n">
-        <v>3.096046060628517</v>
+        <v>3.142350018565876</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.572512509786224</v>
+        <v>-3.599694844586854</v>
       </c>
       <c r="G44" t="n">
-        <v>1.006511495109224</v>
+        <v>1.015437074292755</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.09418866595597077</v>
       </c>
       <c r="E45" t="n">
-        <v>2.805121216867814</v>
+        <v>2.84667877209872</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.480258347904019</v>
+        <v>-3.505231550013469</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9214434186404654</v>
+        <v>0.9283763869730606</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.04879474454481816</v>
       </c>
       <c r="E46" t="n">
-        <v>2.613515856108765</v>
+        <v>2.651651756343114</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.427033925007938</v>
+        <v>-3.452213585266467</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9077805855606321</v>
+        <v>0.9220881047957881</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.006688255348317428</v>
       </c>
       <c r="E47" t="n">
-        <v>2.379777174999961</v>
+        <v>2.414462144045269</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.325522387094052</v>
+        <v>-3.350578538415539</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8089252521939836</v>
+        <v>0.8164644816792663</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.03169832610125277</v>
       </c>
       <c r="E48" t="n">
-        <v>2.215847574869031</v>
+        <v>2.254416518783871</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.303527732609502</v>
+        <v>-3.329886064575846</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7171315804227242</v>
+        <v>0.7279375450526695</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06642009621842997</v>
       </c>
       <c r="E49" t="n">
-        <v>1.994542736676413</v>
+        <v>2.028380525901718</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.233759821277307</v>
+        <v>-3.264745926378477</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6332870048315221</v>
+        <v>0.6477610324114303</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0978636275716927</v>
       </c>
       <c r="E50" t="n">
-        <v>1.867918324818102</v>
+        <v>1.901212064799748</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.160939866878664</v>
+        <v>-3.189603699003116</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5769089870763154</v>
+        <v>0.5878680417961245</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1265833538784477</v>
       </c>
       <c r="E51" t="n">
-        <v>1.711638959735624</v>
+        <v>1.745571896586502</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.0900969703537</v>
+        <v>-3.111214253944749</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5032391082146245</v>
+        <v>0.5141981629344335</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1529211465966382</v>
       </c>
       <c r="E52" t="n">
-        <v>1.619181694268062</v>
+        <v>1.650097353531068</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.968231159615378</v>
+        <v>-2.992332785077755</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4129684083732049</v>
+        <v>0.4217732232627399</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1775061992112601</v>
       </c>
       <c r="E53" t="n">
-        <v>1.497021901763547</v>
+        <v>1.523869390112643</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.930138563749078</v>
+        <v>-2.954546369391182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4116790360625595</v>
+        <v>0.4216439200792693</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.201250194018081</v>
       </c>
       <c r="E54" t="n">
-        <v>1.323117048964404</v>
+        <v>1.349649208323621</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.877976317711554</v>
+        <v>-2.904170581015853</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3381689564181766</v>
+        <v>0.3463077379287027</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.225059559898274</v>
       </c>
       <c r="E55" t="n">
-        <v>1.250086976892621</v>
+        <v>1.271297578347212</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.846025623060107</v>
+        <v>-2.870387684651455</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3043641029094155</v>
+        <v>0.3123827300466222</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2496415211833232</v>
       </c>
       <c r="E56" t="n">
-        <v>1.186685722544661</v>
+        <v>1.205446272640754</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.801896642256032</v>
+        <v>-2.827166875735057</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2517364873955326</v>
+        <v>0.2598148867590606</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2755897713728303</v>
       </c>
       <c r="E57" t="n">
-        <v>1.035006989126893</v>
+        <v>1.050004938568128</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.788594272296157</v>
+        <v>-2.806208171519964</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2043889551802575</v>
+        <v>0.2139580006777578</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3029003212944428</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9779812356129801</v>
+        <v>0.9892330522576283</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.810385518235011</v>
+        <v>-2.828778286163026</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1746004293278824</v>
+        <v>0.1788436474760186</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3315113661414907</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8884241429633557</v>
+        <v>0.8962695526283661</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.758541040870073</v>
+        <v>-2.771253617535532</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1634492495948976</v>
+        <v>0.1697204539932212</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3615043983921221</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8087898498037456</v>
+        <v>0.8224856186001233</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.771467699693071</v>
+        <v>-2.788159398853635</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1131283540804759</v>
+        <v>0.1175356408906574</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3927985921405175</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8374439231973694</v>
+        <v>0.85136231304076</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.772866247804854</v>
+        <v>-2.788728454845041</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1149666550001945</v>
+        <v>0.1161895459570744</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4252586989333207</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7930654848365039</v>
+        <v>0.8095778673181041</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.742616012000181</v>
+        <v>-2.764630488906725</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05475345602959601</v>
+        <v>0.06071543064480828</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4588455077539561</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7695975669572689</v>
+        <v>0.7836257425224742</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.738058074782843</v>
+        <v>-2.757934169796708</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02673309021911348</v>
+        <v>0.03435404907508046</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4930963897894625</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7635416645578373</v>
+        <v>0.7816130042892055</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.813438171222135</v>
+        <v>-2.838205220142843</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05822390468029245</v>
+        <v>0.06706165528637181</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.526991594997408</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7423127654829444</v>
+        <v>0.7572430137290602</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.916451943762852</v>
+        <v>-2.941451982382078</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.009230882485335759</v>
+        <v>-0.00143548631581883</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5589542886815566</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7199506337906537</v>
+        <v>0.737280919899773</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.982843029268231</v>
+        <v>-3.009597504714123</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02619033682299226</v>
+        <v>-0.02132012021915902</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5883182869294599</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6365287332284381</v>
+        <v>0.6507545230929098</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.979295425651926</v>
+        <v>-3.001809122632389</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07976698890989517</v>
+        <v>-0.07471440602371425</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6144362311852084</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6447102091863365</v>
+        <v>0.6569220409761861</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.037381221302028</v>
+        <v>-3.058613779900981</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1517943513891036</v>
+        <v>-0.1508331164025486</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6369317601061114</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5951730617415359</v>
+        <v>0.6070512669212045</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.063482471703122</v>
+        <v>-3.084293880074781</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1412341847918877</v>
+        <v>-0.1365066896264135</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6543763724796398</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5584399790637075</v>
+        <v>0.5730951530846098</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.131919841078992</v>
+        <v>-3.152746802427908</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1471754221040905</v>
+        <v>-0.1449601902061416</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6658789818893671</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5202790720816117</v>
+        <v>0.5361199318981122</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.154174016811498</v>
+        <v>-3.171634825945441</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1808204763955437</v>
+        <v>-0.1797384771149926</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.670437000440351</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4799468474902929</v>
+        <v>0.4953028203687788</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.20795529728545</v>
+        <v>-3.228121409581109</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2539682631579382</v>
+        <v>-0.2522873217728206</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.668372834393361</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4854172260400462</v>
+        <v>0.4910852188890659</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.258502778331284</v>
+        <v>-3.278322760642888</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3364630842914968</v>
+        <v>-0.3392638400391239</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6596447420636602</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4148908783463148</v>
+        <v>0.4227362880113251</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.289909423739072</v>
+        <v>-3.307646526939582</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3812056452963808</v>
+        <v>-0.389000431545221</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6445228343631639</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4273186220557332</v>
+        <v>0.4288171971585032</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.273603194446212</v>
+        <v>-3.293020934071502</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3622761471728281</v>
+        <v>-0.3713505470014857</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6227653610399</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4367644635765304</v>
+        <v>0.4404087396201</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.33283747073063</v>
+        <v>-3.350516021546173</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3944201866788043</v>
+        <v>-0.4022229018964422</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5946700573795534</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3618692540752526</v>
+        <v>0.3618826723301411</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.353557695961115</v>
+        <v>-3.370800458453121</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4090692614929392</v>
+        <v>-0.4174154160335595</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.560174188480698</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4013854048010825</v>
+        <v>0.4000588273291555</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.339846679147819</v>
+        <v>-3.358150398657028</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3805341226312812</v>
+        <v>-0.3861972361148869</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5207264948509395</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4419890440935543</v>
+        <v>0.4434089394290237</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.307322049139552</v>
+        <v>-3.321656099924146</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3303230128386741</v>
+        <v>-0.3367460874855079</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.477156331222311</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4964458117170046</v>
+        <v>0.4936603039862962</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.261549942032317</v>
+        <v>-3.281555340229653</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3369089363061997</v>
+        <v>-0.3463669762405318</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4302666650674011</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6820221065863989</v>
+        <v>0.6761955343614248</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.143586708744167</v>
+        <v>-3.159325406847312</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3561702312779033</v>
+        <v>-0.3659722664739213</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3800014583439966</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7758791400070971</v>
+        <v>0.7678342862807902</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.006245075714378</v>
+        <v>-3.024679318248411</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.325556482749888</v>
+        <v>-0.3344070416901791</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3267761523475799</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9777909403618347</v>
+        <v>0.9653235518084277</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.864201869147876</v>
+        <v>-2.880332441285832</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2782150497413805</v>
+        <v>-0.2879951277930357</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2707386780213644</v>
       </c>
       <c r="E84" t="n">
-        <v>1.268627345624409</v>
+        <v>1.25894180527765</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.765234310376706</v>
+        <v>-2.782879315555027</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3216475011326098</v>
+        <v>-0.3319972450963475</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2127876576184056</v>
       </c>
       <c r="E85" t="n">
-        <v>1.490555522748664</v>
+        <v>1.485683476382801</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.544435706345788</v>
+        <v>-2.555525894011098</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2746104185417995</v>
+        <v>-0.2872687122670287</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1539476309932691</v>
       </c>
       <c r="E86" t="n">
-        <v>1.769181925983419</v>
+        <v>1.769976652625222</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.33365809903384</v>
+        <v>-2.345808938756015</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2924146130167521</v>
+        <v>-0.3072051894278925</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09636876052313602</v>
       </c>
       <c r="E87" t="n">
-        <v>1.948300990648082</v>
+        <v>1.947894173556691</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.083506452513745</v>
+        <v>-2.093916578624481</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2827949441030817</v>
+        <v>-0.2979898979229061</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.04179288041290439</v>
       </c>
       <c r="E88" t="n">
-        <v>2.147082678089749</v>
+        <v>2.148631876608688</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.772282838710191</v>
+        <v>-1.777459235493752</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2311517405614701</v>
+        <v>-0.2434837267246391</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.006759493999559027</v>
       </c>
       <c r="E89" t="n">
-        <v>2.218908156824953</v>
+        <v>2.218065246449687</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.545622287055047</v>
+        <v>-1.548651763056455</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2542341885730004</v>
+        <v>-0.2647711781844999</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04645159823799183</v>
       </c>
       <c r="E90" t="n">
-        <v>2.360497582407954</v>
+        <v>2.362653042079582</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.368850197154511</v>
+        <v>-1.374778016211825</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2671565779512615</v>
+        <v>-0.2784895140459172</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07369289599948457</v>
       </c>
       <c r="E91" t="n">
-        <v>2.384258872132705</v>
+        <v>2.387689066018736</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.058605506037137</v>
+        <v>-1.060135797015098</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2273976787960858</v>
+        <v>-0.2387092676670553</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08709707292070683</v>
       </c>
       <c r="E92" t="n">
-        <v>2.322164067874339</v>
+        <v>2.320835660640382</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9044291474480861</v>
+        <v>-0.9015850873324099</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2266974898591791</v>
+        <v>-0.2394917958953231</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08616962255267754</v>
       </c>
       <c r="E93" t="n">
-        <v>2.255536333146381</v>
+        <v>2.256978185626213</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6835140485679093</v>
+        <v>-0.6799197860198329</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.22922744082633</v>
+        <v>-0.2412874023676694</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07241883030422559</v>
       </c>
       <c r="E94" t="n">
-        <v>2.191841097032228</v>
+        <v>2.194684547227227</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4421781955095307</v>
+        <v>-0.437456799550824</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2015285032124937</v>
+        <v>-0.2093507358917875</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.04830239793939799</v>
       </c>
       <c r="E95" t="n">
-        <v>2.027003934934298</v>
+        <v>2.032548723806614</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2594514500419033</v>
+        <v>-0.2529240789593455</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2025129151847651</v>
+        <v>-0.2086944612436066</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01822895824306431</v>
       </c>
       <c r="E96" t="n">
-        <v>1.880754105460265</v>
+        <v>1.883731128283472</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1235605133417592</v>
+        <v>-0.1181919915450228</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2069750948558539</v>
+        <v>-0.2148814965885389</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01298780259208514</v>
       </c>
       <c r="E97" t="n">
-        <v>1.73144552379234</v>
+        <v>1.736376122543171</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04912022865915094</v>
+        <v>0.056876589905356</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2003153709864418</v>
+        <v>-0.2051727792560634</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04032873081506842</v>
       </c>
       <c r="E98" t="n">
-        <v>1.563673423397898</v>
+        <v>1.561578345873269</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1623434634079534</v>
+        <v>0.1660963053319842</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.271868825099817</v>
+        <v>-0.2762236587317981</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05930143777606926</v>
       </c>
       <c r="E99" t="n">
-        <v>1.468941153806067</v>
+        <v>1.469512039559503</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2734338055501679</v>
+        <v>0.2810864802813258</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2504160851365576</v>
+        <v>-0.2541628278538209</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06882755604475814</v>
       </c>
       <c r="E100" t="n">
-        <v>1.318354788320355</v>
+        <v>1.321157373830012</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3212247500974388</v>
+        <v>0.3284193744003589</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3165052599069468</v>
+        <v>-0.322334271814628</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07082610707426019</v>
       </c>
       <c r="E101" t="n">
-        <v>1.260348892278907</v>
+        <v>1.263444239713404</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3911399572730687</v>
+        <v>0.3979991252037773</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3336586690198092</v>
+        <v>-0.3387472372259183</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07033892333445617</v>
       </c>
       <c r="E102" t="n">
-        <v>1.146170521750318</v>
+        <v>1.146299824933788</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4076919845986575</v>
+        <v>0.4162284343904233</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3699038151562393</v>
+        <v>-0.3776809137054538</v>
       </c>
     </row>
   </sheetData>
